--- a/biology/Botanique/Allocasuarina/Allocasuarina.xlsx
+++ b/biology/Botanique/Allocasuarina/Allocasuarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allocasuarina est un genre de plante de la famille des Casuarinaceae.
 Ce sont des arbres endémiques en Australie où on les trouve surtout dans le sud du pays. Comme le genre étroitement apparenté Casuarina, ils sont communément appelés filaos ou  chênes-femelle (she-oaks). Ils sont remarquables par leur longues ramilles segmentées  qui fonctionnent comme des feuilles. Appelées cladodes, ces ramilles ressemblent un peu à des aiguilles de pin, bien que ce soit en fait des plantes à fleurs. Les feuilles sont réduites à de minuscules écailles entourant chaque nœud. Sur le sol, les cladodes forment après leur chute un tapis  dense et doux empêchant le développement de sous-bois. 
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
